--- a/REGULAR/LLORENTE, MARIA THERESA OCAMPO.xlsx
+++ b/REGULAR/LLORENTE, MARIA THERESA OCAMPO.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
   <si>
     <t>PERIOD</t>
   </si>
@@ -184,9 +184,6 @@
   </si>
   <si>
     <t>2023</t>
-  </si>
-  <si>
-    <t>FL(5-0-0)</t>
   </si>
   <si>
     <t>VL(2-0-0)</t>
@@ -2986,8 +2983,8 @@
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A30" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A23" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
       <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
     </sheetView>
@@ -3154,7 +3151,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>25.625</v>
+        <v>34.375</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3164,13 +3161,13 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>35.625</v>
+        <v>39.375</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="51" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="20"/>
@@ -3613,15 +3610,11 @@
       <c r="A32" s="40">
         <v>44926</v>
       </c>
-      <c r="B32" s="20" t="s">
-        <v>50</v>
-      </c>
+      <c r="B32" s="20"/>
       <c r="C32" s="13">
         <v>1.25</v>
       </c>
-      <c r="D32" s="39">
-        <v>5</v>
-      </c>
+      <c r="D32" s="39"/>
       <c r="E32" s="9"/>
       <c r="F32" s="20"/>
       <c r="G32" s="13">
@@ -3816,29 +3809,31 @@
         <v>45199</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" s="13"/>
+        <v>50</v>
+      </c>
+      <c r="C42" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D42" s="39">
         <v>2</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="20"/>
-      <c r="G42" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G42" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H42" s="39"/>
       <c r="I42" s="9"/>
       <c r="J42" s="11"/>
       <c r="K42" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C43" s="13"/>
       <c r="D43" s="39">
@@ -3854,7 +3849,7 @@
       <c r="I43" s="9"/>
       <c r="J43" s="11"/>
       <c r="K43" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -3862,13 +3857,15 @@
         <v>45230</v>
       </c>
       <c r="B44" s="20"/>
-      <c r="C44" s="13"/>
+      <c r="C44" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D44" s="39"/>
       <c r="E44" s="9"/>
       <c r="F44" s="20"/>
-      <c r="G44" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G44" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H44" s="39"/>
       <c r="I44" s="9"/>
@@ -3880,13 +3877,15 @@
         <v>45260</v>
       </c>
       <c r="B45" s="20"/>
-      <c r="C45" s="13"/>
+      <c r="C45" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D45" s="39"/>
       <c r="E45" s="9"/>
       <c r="F45" s="20"/>
-      <c r="G45" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G45" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H45" s="39"/>
       <c r="I45" s="9"/>
@@ -3894,9 +3893,7 @@
       <c r="K45" s="20"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="40">
-        <v>45291</v>
-      </c>
+      <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
       <c r="D46" s="39"/>
@@ -3912,9 +3909,7 @@
       <c r="K46" s="20"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="40">
-        <v>45322</v>
-      </c>
+      <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
       <c r="D47" s="39"/>
@@ -3930,9 +3925,7 @@
       <c r="K47" s="20"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="40">
-        <v>45351</v>
-      </c>
+      <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
       <c r="D48" s="39"/>
@@ -3948,9 +3941,7 @@
       <c r="K48" s="20"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="40">
-        <v>45382</v>
-      </c>
+      <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
       <c r="D49" s="39"/>
@@ -3966,9 +3957,7 @@
       <c r="K49" s="20"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="40">
-        <v>45412</v>
-      </c>
+      <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
       <c r="D50" s="39"/>
@@ -3984,9 +3973,7 @@
       <c r="K50" s="20"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="40">
-        <v>45443</v>
-      </c>
+      <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
       <c r="D51" s="39"/>
@@ -4002,9 +3989,7 @@
       <c r="K51" s="20"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="40">
-        <v>45473</v>
-      </c>
+      <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
       <c r="D52" s="39"/>
@@ -4020,9 +4005,7 @@
       <c r="K52" s="20"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="40">
-        <v>45504</v>
-      </c>
+      <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
       <c r="D53" s="39"/>
@@ -4038,9 +4021,7 @@
       <c r="K53" s="20"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="40">
-        <v>45535</v>
-      </c>
+      <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
       <c r="D54" s="39"/>
@@ -4056,9 +4037,7 @@
       <c r="K54" s="20"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="40">
-        <v>45565</v>
-      </c>
+      <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
       <c r="D55" s="39"/>
@@ -4074,9 +4053,7 @@
       <c r="K55" s="20"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="40">
-        <v>45596</v>
-      </c>
+      <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
       <c r="D56" s="39"/>
@@ -4092,9 +4069,7 @@
       <c r="K56" s="20"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="40">
-        <v>45626</v>
-      </c>
+      <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
       <c r="D57" s="39"/>
@@ -4110,9 +4085,7 @@
       <c r="K57" s="20"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="40">
-        <v>45657</v>
-      </c>
+      <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
       <c r="D58" s="39"/>
@@ -4128,9 +4101,7 @@
       <c r="K58" s="20"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="40">
-        <v>45688</v>
-      </c>
+      <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
       <c r="D59" s="39"/>
@@ -4146,9 +4117,7 @@
       <c r="K59" s="20"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="40">
-        <v>45716</v>
-      </c>
+      <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
       <c r="D60" s="39"/>
@@ -4164,9 +4133,7 @@
       <c r="K60" s="20"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="40">
-        <v>45747</v>
-      </c>
+      <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
       <c r="D61" s="39"/>
@@ -4182,9 +4149,7 @@
       <c r="K61" s="20"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="40">
-        <v>45777</v>
-      </c>
+      <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
       <c r="D62" s="39"/>
@@ -4200,9 +4165,7 @@
       <c r="K62" s="20"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="40">
-        <v>45808</v>
-      </c>
+      <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
       <c r="D63" s="39"/>
@@ -4218,9 +4181,7 @@
       <c r="K63" s="20"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="40">
-        <v>45838</v>
-      </c>
+      <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
       <c r="D64" s="39"/>
@@ -4236,9 +4197,7 @@
       <c r="K64" s="20"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="40">
-        <v>45869</v>
-      </c>
+      <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
       <c r="D65" s="39"/>
@@ -4254,9 +4213,7 @@
       <c r="K65" s="20"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="40">
-        <v>45900</v>
-      </c>
+      <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
       <c r="D66" s="39"/>
@@ -4272,9 +4229,7 @@
       <c r="K66" s="20"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="40">
-        <v>45930</v>
-      </c>
+      <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
       <c r="D67" s="39"/>
@@ -4290,9 +4245,7 @@
       <c r="K67" s="20"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="40">
-        <v>45961</v>
-      </c>
+      <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
       <c r="D68" s="39"/>
@@ -4308,9 +4261,7 @@
       <c r="K68" s="20"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="40">
-        <v>45991</v>
-      </c>
+      <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
       <c r="D69" s="39"/>
@@ -4326,9 +4277,7 @@
       <c r="K69" s="20"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="40">
-        <v>46022</v>
-      </c>
+      <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
       <c r="D70" s="39"/>
@@ -4344,9 +4293,7 @@
       <c r="K70" s="20"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="40">
-        <v>46053</v>
-      </c>
+      <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
       <c r="D71" s="39"/>
@@ -4362,9 +4309,7 @@
       <c r="K71" s="20"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="40">
-        <v>46081</v>
-      </c>
+      <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
       <c r="D72" s="39"/>
@@ -4380,9 +4325,7 @@
       <c r="K72" s="20"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="40">
-        <v>46112</v>
-      </c>
+      <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
       <c r="D73" s="39"/>
@@ -4398,9 +4341,7 @@
       <c r="K73" s="20"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="40">
-        <v>46142</v>
-      </c>
+      <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
       <c r="D74" s="39"/>
@@ -4416,9 +4357,7 @@
       <c r="K74" s="20"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="40">
-        <v>46173</v>
-      </c>
+      <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
       <c r="D75" s="39"/>
@@ -4434,9 +4373,7 @@
       <c r="K75" s="20"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="40">
-        <v>46203</v>
-      </c>
+      <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
       <c r="D76" s="39"/>
@@ -4452,9 +4389,7 @@
       <c r="K76" s="20"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="40">
-        <v>46234</v>
-      </c>
+      <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
       <c r="D77" s="39"/>
@@ -4470,9 +4405,7 @@
       <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="40">
-        <v>46265</v>
-      </c>
+      <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
       <c r="D78" s="39"/>
@@ -4488,9 +4421,7 @@
       <c r="K78" s="20"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="40">
-        <v>46295</v>
-      </c>
+      <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
       <c r="D79" s="39"/>
@@ -4506,9 +4437,7 @@
       <c r="K79" s="20"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="40">
-        <v>46326</v>
-      </c>
+      <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
       <c r="D80" s="39"/>
@@ -4524,9 +4453,7 @@
       <c r="K80" s="20"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="40">
-        <v>46356</v>
-      </c>
+      <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
       <c r="D81" s="39"/>
@@ -4542,9 +4469,7 @@
       <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="40">
-        <v>46387</v>
-      </c>
+      <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
       <c r="D82" s="39"/>
@@ -4560,9 +4485,7 @@
       <c r="K82" s="20"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="40">
-        <v>46418</v>
-      </c>
+      <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
       <c r="D83" s="39"/>
@@ -5438,8 +5361,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5557,7 +5480,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="50">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>61.25</v>
+        <v>73.75</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
